--- a/business/Industries/Transportation_Industry/Transportation.xlsx
+++ b/business/Industries/Transportation_Industry/Transportation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unum\База знаний\Классификаторы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Datapo\Git\classifiers\business\Industries\Transportation_Industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="53">
   <si>
     <t xml:space="preserve">Transportation </t>
   </si>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +594,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -615,7 +618,7 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="7" t="s">
         <v>49</v>
       </c>
@@ -637,7 +640,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
@@ -661,7 +664,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
@@ -685,7 +688,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="7" t="s">
         <v>49</v>
       </c>
@@ -709,7 +712,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
@@ -733,7 +736,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
@@ -757,7 +760,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="7" t="s">
         <v>49</v>
       </c>
@@ -781,7 +784,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
@@ -803,7 +806,7 @@
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
@@ -825,7 +828,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
@@ -847,7 +850,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -891,7 +894,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="7" t="s">
         <v>49</v>
       </c>
@@ -911,7 +914,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="7" t="s">
         <v>49</v>
       </c>
@@ -933,7 +936,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
@@ -955,7 +958,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="7" t="s">
         <v>49</v>
       </c>
@@ -977,7 +980,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
@@ -999,7 +1002,7 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1024,7 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="7" t="s">
         <v>49</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -1065,7 +1068,7 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1085,7 +1088,7 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1107,7 +1110,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="8" t="s">
         <v>49</v>
       </c>
@@ -1127,7 +1130,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
@@ -1147,7 +1150,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="8" t="s">
         <v>49</v>
       </c>
@@ -1187,7 +1190,7 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
@@ -1207,7 +1210,7 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
@@ -1223,6 +1226,46 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
